--- a/Data/BenchMark Girls.xlsx
+++ b/Data/BenchMark Girls.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\212475369\Desktop\WOD-Predict\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A07FCC8-81AF-44F1-B9BA-AC023648C9F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{B6B62F98-FBD6-4EC6-B854-480FB813DDA8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="20240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
   <si>
     <t>Workout</t>
   </si>
@@ -151,16 +148,44 @@
   </si>
   <si>
     <t>BoxJumps</t>
+  </si>
+  <si>
+    <t>Name of WOD</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Amrap</t>
+  </si>
+  <si>
+    <t>100 pullups</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,8 +208,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -192,7 +219,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -251,7 +280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -303,7 +332,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -497,29 +526,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBB5C87-3904-4BB2-8C8D-6BE7B4ACD438}">
-  <dimension ref="A1:U21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="13.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="8.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16" width="8.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" style="1"/>
+    <col min="19" max="19" width="8.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="8.83203125" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +621,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -601,7 +638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -618,220 +655,304 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Data/BenchMark Girls.xlsx
+++ b/Data/BenchMark Girls.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="20240"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -538,14 +538,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="8.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1"/>
     <col min="8" max="8" width="8.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" style="1" customWidth="1"/>
     <col min="10" max="16" width="8.83203125" style="1" hidden="1" customWidth="1"/>
